--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SUNDSVALL/Översikt SUNDSVALL.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>45119</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>45125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45125</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45128</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45129</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45132</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45135</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45138</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
